--- a/Anfragen_Michael_Schulz.xlsx
+++ b/Anfragen_Michael_Schulz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michi\OneDrive\HDM\02_WS1920\Cloudcomputing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\MyCo-Gruppe-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C53D2B52-362B-4E46-B277-7D2B93116195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FF3DA0D-9B46-4B09-B143-5E0C00EDE1AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34106876-2C56-4546-929C-C0611A1B9091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,73 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="166">
-  <si>
-    <t>2287newsML.xml</t>
-  </si>
-  <si>
-    <t>2414newsML.xml</t>
-  </si>
-  <si>
-    <t>2515newsML.xml</t>
-  </si>
-  <si>
-    <t>2516newsML.xml</t>
-  </si>
-  <si>
-    <t>2970newsML.xml</t>
-  </si>
-  <si>
-    <t>3037newsML.xml</t>
-  </si>
-  <si>
-    <t>4166newsML.xml</t>
-  </si>
-  <si>
-    <t>6158newsML.xml</t>
-  </si>
-  <si>
-    <t>Show me Information about Chrysler Investments in Brasil</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Tell me something about the tennis U.S. Open</t>
-  </si>
-  <si>
-    <t>5401newsML.xml</t>
-  </si>
-  <si>
-    <t>5402newsML.xml</t>
-  </si>
-  <si>
-    <t>8575newsML.xml</t>
-  </si>
-  <si>
-    <t>8576newsML.xml</t>
-  </si>
-  <si>
-    <t>8579newsML.xml</t>
-  </si>
-  <si>
-    <t>10558newsML.xml</t>
-  </si>
-  <si>
-    <t>10577newsML.xml</t>
-  </si>
-  <si>
-    <t>10579newsML.xml</t>
-  </si>
-  <si>
-    <t>10580newsML.xml</t>
-  </si>
-  <si>
-    <t>10914newsML.xml</t>
-  </si>
-  <si>
-    <t>Tell me something about Volkswagen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
   <si>
     <t>2602newsML.xml</t>
   </si>
@@ -108,249 +42,18 @@
     <t>4405newsML.xml</t>
   </si>
   <si>
-    <t>5296newsML.xml</t>
-  </si>
-  <si>
-    <t>7854newsML.xml</t>
-  </si>
-  <si>
-    <t>8389newsML.xml</t>
-  </si>
-  <si>
-    <t>9786newsML.xml</t>
-  </si>
-  <si>
     <t>10192newsML.xml</t>
   </si>
   <si>
     <t>10419newsML.xml</t>
   </si>
   <si>
-    <t>10506newsML.xml</t>
-  </si>
-  <si>
     <t>12046newsML.xml</t>
   </si>
   <si>
-    <t>Show me Documents about rugby in South Africa</t>
-  </si>
-  <si>
-    <t>2657newsML.xml</t>
-  </si>
-  <si>
-    <t>5823newsML.xml</t>
-  </si>
-  <si>
-    <t>5825newsML.xml</t>
-  </si>
-  <si>
-    <t>5826newsML.xml</t>
-  </si>
-  <si>
-    <t>5827newsML.xml</t>
-  </si>
-  <si>
-    <t>9016newsML.xml</t>
-  </si>
-  <si>
-    <t>Please show me information about the german government</t>
-  </si>
-  <si>
-    <t>6495newsML.xml</t>
-  </si>
-  <si>
-    <t>6519newsML.xml</t>
-  </si>
-  <si>
-    <t>6530newsML.xml</t>
-  </si>
-  <si>
-    <t>7152newsML.xml</t>
-  </si>
-  <si>
-    <t>7855newsML.xml</t>
-  </si>
-  <si>
-    <t>9773newsML.xml</t>
-  </si>
-  <si>
     <t>11506newsML.xml</t>
   </si>
   <si>
-    <t>11924newsML.xml</t>
-  </si>
-  <si>
-    <t>11934newsML.xml</t>
-  </si>
-  <si>
-    <t>Tell me something about the inflation in China</t>
-  </si>
-  <si>
-    <t>2430newsML.xml</t>
-  </si>
-  <si>
-    <t>4793newsML.xml</t>
-  </si>
-  <si>
-    <t>7284newsML.xml</t>
-  </si>
-  <si>
-    <t>10162newsML.xml</t>
-  </si>
-  <si>
-    <t>7573newsML.xml</t>
-  </si>
-  <si>
-    <t>7748newsML.xml</t>
-  </si>
-  <si>
-    <t>9390newsML.xml</t>
-  </si>
-  <si>
-    <t>2757newsML.xml</t>
-  </si>
-  <si>
-    <t>3623newsML.xml</t>
-  </si>
-  <si>
-    <t>3654newsML.xml</t>
-  </si>
-  <si>
-    <t>4139newsML.xml</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 1996</t>
-  </si>
-  <si>
-    <t>7009newsML.xml</t>
-  </si>
-  <si>
-    <t>9593newsML.xml</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 1997</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 1998</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 1999</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 2000</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 2001</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 2002</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 2003</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 2004</t>
-  </si>
-  <si>
-    <t>Show me Information about the Olympic Park bombing in Atlanta 2005</t>
-  </si>
-  <si>
-    <t>2309newsML.xml</t>
-  </si>
-  <si>
-    <t>Show me imports in the U.S.</t>
-  </si>
-  <si>
-    <t>2339newsML.xml</t>
-  </si>
-  <si>
-    <t>2340newsML.xml</t>
-  </si>
-  <si>
-    <t>2520newsML.xml</t>
-  </si>
-  <si>
-    <t>2533newsML.xml</t>
-  </si>
-  <si>
-    <t>2534newsML.xml</t>
-  </si>
-  <si>
-    <t>4115newsML.xml</t>
-  </si>
-  <si>
-    <t>4124newsML.xml</t>
-  </si>
-  <si>
-    <t>4262newsML.xml</t>
-  </si>
-  <si>
-    <t>Show me news about the UEFA Cup</t>
-  </si>
-  <si>
-    <t>2644newsML.xml</t>
-  </si>
-  <si>
-    <t>2645newsML.xml</t>
-  </si>
-  <si>
-    <t>2650newsML.xml</t>
-  </si>
-  <si>
-    <t>2666newsML.xml</t>
-  </si>
-  <si>
-    <t>2672newsML.xml</t>
-  </si>
-  <si>
-    <t>2673newsML.xml</t>
-  </si>
-  <si>
-    <t>5375newsML.xml</t>
-  </si>
-  <si>
-    <t>10607newsML.xml</t>
-  </si>
-  <si>
-    <t>10609newsML.xml</t>
-  </si>
-  <si>
-    <t>10610newsML.xml</t>
-  </si>
-  <si>
-    <t>Show me information about the German Bundesbank</t>
-  </si>
-  <si>
-    <t>2619newsML.xml</t>
-  </si>
-  <si>
-    <t>4331newsML.xml</t>
-  </si>
-  <si>
-    <t>4337newsML.xml</t>
-  </si>
-  <si>
-    <t>4367newsML.xml</t>
-  </si>
-  <si>
-    <t>4378newsML.xml</t>
-  </si>
-  <si>
-    <t>4420newsML.xml</t>
-  </si>
-  <si>
-    <t>4436newsML.xml</t>
-  </si>
-  <si>
-    <t>4859newsML.xml</t>
-  </si>
-  <si>
-    <t>4880newsML.xml</t>
-  </si>
-  <si>
-    <t>4912newsML.xml</t>
-  </si>
-  <si>
     <t>8364newsML.xml</t>
   </si>
   <si>
@@ -363,9 +66,6 @@
     <t>5477newsML.xml</t>
   </si>
   <si>
-    <t>5403newsML.xml</t>
-  </si>
-  <si>
     <t>5279newsML.xml</t>
   </si>
   <si>
@@ -432,9 +132,6 @@
     <t>Show me news about hurricanes Dolly in the golf of Mexico.</t>
   </si>
   <si>
-    <t>4119newsML.xml</t>
-  </si>
-  <si>
     <t>9217newsML.xml</t>
   </si>
   <si>
@@ -531,7 +228,124 @@
     <t>7160newsML.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">Show me news abuout the German </t>
+    <t>News from Australia</t>
+  </si>
+  <si>
+    <t>12134newsML.xml</t>
+  </si>
+  <si>
+    <t>12172newsML.xml</t>
+  </si>
+  <si>
+    <t>2415newsML.xml</t>
+  </si>
+  <si>
+    <t>3516newsML.xml</t>
+  </si>
+  <si>
+    <t>4531newsML.xml</t>
+  </si>
+  <si>
+    <t>4535newsML.xml</t>
+  </si>
+  <si>
+    <t>7255newsML.xml</t>
+  </si>
+  <si>
+    <t>7668newsML.xml</t>
+  </si>
+  <si>
+    <t>9323newsML.xml</t>
+  </si>
+  <si>
+    <t>9338newsML.xml</t>
+  </si>
+  <si>
+    <t>9983newsML.xml</t>
+  </si>
+  <si>
+    <t>Brazil exports</t>
+  </si>
+  <si>
+    <t>3407newsML.xml</t>
+  </si>
+  <si>
+    <t>3375newsML.xml</t>
+  </si>
+  <si>
+    <t>11203newsML.xml</t>
+  </si>
+  <si>
+    <t>9289newsML.xml</t>
+  </si>
+  <si>
+    <t>European Competition Commissioner Karel Van Miert</t>
+  </si>
+  <si>
+    <t>10423newsML.xml</t>
+  </si>
+  <si>
+    <t>12011newsML.xml</t>
+  </si>
+  <si>
+    <t>oil price</t>
+  </si>
+  <si>
+    <t>10115newsML.xml</t>
+  </si>
+  <si>
+    <t>10712newsML.xml</t>
+  </si>
+  <si>
+    <t>10734newsML.xml</t>
+  </si>
+  <si>
+    <t>10754newsML.xml</t>
+  </si>
+  <si>
+    <t>11197newsML.xml</t>
+  </si>
+  <si>
+    <t>2307newsML.xml</t>
+  </si>
+  <si>
+    <t>2698newsML.xml</t>
+  </si>
+  <si>
+    <t>2880newsML.xml</t>
+  </si>
+  <si>
+    <t>3404newsML.xml</t>
+  </si>
+  <si>
+    <t>4969newsML.xml</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>9768newsML.xml</t>
+  </si>
+  <si>
+    <t>9691newsML.xml</t>
+  </si>
+  <si>
+    <t>9626newsML.xml</t>
+  </si>
+  <si>
+    <t>7788newsML.xml</t>
+  </si>
+  <si>
+    <t>6449newsML.xml</t>
+  </si>
+  <si>
+    <t>6433newsML.xml</t>
+  </si>
+  <si>
+    <t>2505newsML.xml</t>
+  </si>
+  <si>
+    <t>11917newsML.xml</t>
   </si>
 </sst>
 </file>
@@ -883,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,71 +711,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -969,426 +783,426 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,740 +1210,263 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>113</v>
-      </c>
-      <c r="B105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>131</v>
-      </c>
-      <c r="B114" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>131</v>
-      </c>
-      <c r="B115" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>131</v>
-      </c>
-      <c r="B118" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>131</v>
-      </c>
-      <c r="B119" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>131</v>
-      </c>
-      <c r="B120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>131</v>
-      </c>
-      <c r="B121" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>136</v>
-      </c>
-      <c r="B128" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>136</v>
-      </c>
-      <c r="B129" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>136</v>
-      </c>
-      <c r="B130" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>136</v>
-      </c>
-      <c r="B132" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>153</v>
-      </c>
-      <c r="B140" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>153</v>
-      </c>
-      <c r="B141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>153</v>
-      </c>
-      <c r="B143" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>153</v>
-      </c>
-      <c r="B144" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>153</v>
-      </c>
-      <c r="B145" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>153</v>
-      </c>
-      <c r="B146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>153</v>
-      </c>
-      <c r="B147" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>153</v>
-      </c>
-      <c r="B149" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>159</v>
-      </c>
-      <c r="B150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>159</v>
-      </c>
-      <c r="B152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
